--- a/results/mp/logistic/corona/confidence/42/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,10 +40,13 @@
     <t>name</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>fraud</t>
+    <t>war</t>
   </si>
   <si>
     <t>crisis</t>
@@ -52,30 +55,24 @@
     <t>die</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>cut</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
@@ -103,51 +103,63 @@
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>thank</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>gt</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
@@ -160,19 +172,16 @@
     <t>share</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
   </si>
   <si>
     <t>corona</t>
@@ -533,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -544,7 +553,7 @@
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -602,7 +611,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C3">
         <v>30</v>
@@ -620,19 +629,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -644,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -652,13 +661,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8333333333333334</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -702,13 +711,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8116438356164384</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C5">
-        <v>237</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>237</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -720,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K5">
-        <v>0.8916666666666667</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -744,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -752,13 +761,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8108108108108109</v>
+        <v>0.8013698630136986</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>234</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>234</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -770,19 +779,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K6">
-        <v>0.8571428571428571</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -794,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -802,13 +811,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7894736842105263</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -820,19 +829,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K7">
-        <v>0.8372093023255814</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -844,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -852,13 +861,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5932203389830508</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="C8">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -870,19 +879,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K8">
-        <v>0.8328981723237598</v>
+        <v>0.8120104438642297</v>
       </c>
       <c r="L8">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="M8">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -894,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -902,13 +911,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5490196078431373</v>
+        <v>0.5368217054263565</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>277</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>277</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -920,19 +929,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>23</v>
+        <v>239</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K9">
-        <v>0.8103448275862069</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -944,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -952,13 +961,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5343915343915344</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C10">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -970,19 +979,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K10">
-        <v>0.8028169014084507</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L10">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -994,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1002,13 +1011,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5251937984496124</v>
+        <v>0.5291005291005291</v>
       </c>
       <c r="C11">
-        <v>271</v>
+        <v>100</v>
       </c>
       <c r="D11">
-        <v>271</v>
+        <v>100</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1020,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>245</v>
+        <v>89</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K11">
-        <v>0.79375</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L11">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="M11">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1044,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1052,13 +1061,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5167785234899329</v>
+        <v>0.5234899328859061</v>
       </c>
       <c r="C12">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D12">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1070,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>34</v>
@@ -1102,13 +1111,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4666666666666667</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="C13">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D13">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1120,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K13">
-        <v>0.7924528301886793</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L13">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="M13">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1144,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1152,13 +1161,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4545454545454545</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1170,19 +1179,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K14">
-        <v>0.78125</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="M14">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1194,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1202,13 +1211,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3111111111111111</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C15">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="D15">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1220,19 +1229,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>62</v>
+        <v>182</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1244,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1252,13 +1261,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2619047619047619</v>
+        <v>0.1635388739946381</v>
       </c>
       <c r="C16">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D16">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1270,19 +1279,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>186</v>
+        <v>312</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K16">
-        <v>0.7777777777777778</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1294,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1302,13 +1311,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1581769436997319</v>
+        <v>0.08666666666666667</v>
       </c>
       <c r="C17">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1320,19 +1329,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>314</v>
+        <v>274</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K17">
-        <v>0.7291666666666666</v>
+        <v>0.765625</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1344,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1352,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.01226993865030675</v>
+        <v>0.01611863313990974</v>
       </c>
       <c r="C18">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D18">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E18">
-        <v>0.21</v>
+        <v>0.09</v>
       </c>
       <c r="F18">
-        <v>0.79</v>
+        <v>0.91</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>3059</v>
+        <v>3052</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K18">
-        <v>0.723404255319149</v>
+        <v>0.7625</v>
       </c>
       <c r="L18">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="M18">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1394,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1402,13 +1411,13 @@
         <v>41</v>
       </c>
       <c r="K19">
-        <v>0.6825396825396826</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="M19">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1420,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1428,13 +1437,13 @@
         <v>42</v>
       </c>
       <c r="K20">
-        <v>0.6529411764705882</v>
+        <v>0.75</v>
       </c>
       <c r="L20">
-        <v>222</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>222</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1446,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>118</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1454,13 +1463,13 @@
         <v>43</v>
       </c>
       <c r="K21">
-        <v>0.6170212765957447</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L21">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="M21">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1472,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1480,13 +1489,13 @@
         <v>44</v>
       </c>
       <c r="K22">
-        <v>0.5899581589958159</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L22">
-        <v>141</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>141</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1498,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>98</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1506,13 +1515,13 @@
         <v>45</v>
       </c>
       <c r="K23">
-        <v>0.5898305084745763</v>
+        <v>0.6558823529411765</v>
       </c>
       <c r="L23">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="M23">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1524,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1532,13 +1541,13 @@
         <v>46</v>
       </c>
       <c r="K24">
-        <v>0.5846153846153846</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L24">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="M24">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1550,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1558,13 +1567,13 @@
         <v>47</v>
       </c>
       <c r="K25">
-        <v>0.5428571428571428</v>
+        <v>0.6</v>
       </c>
       <c r="L25">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M25">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1576,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1584,13 +1593,13 @@
         <v>48</v>
       </c>
       <c r="K26">
-        <v>0.54</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L26">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="M26">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1602,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>23</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1610,13 +1619,13 @@
         <v>49</v>
       </c>
       <c r="K27">
-        <v>0.5098039215686274</v>
+        <v>0.5898305084745763</v>
       </c>
       <c r="L27">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="M27">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1628,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>25</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1636,13 +1645,13 @@
         <v>50</v>
       </c>
       <c r="K28">
-        <v>0.5056179775280899</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L28">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M28">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1654,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1662,13 +1671,13 @@
         <v>51</v>
       </c>
       <c r="K29">
-        <v>0.3974358974358974</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L29">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M29">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1680,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1688,13 +1697,13 @@
         <v>52</v>
       </c>
       <c r="K30">
-        <v>0.3424657534246575</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L30">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M30">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1706,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1714,25 +1723,103 @@
         <v>53</v>
       </c>
       <c r="K31">
-        <v>0.01004079071226859</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L31">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="M31">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N31">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>3155</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K32">
+        <v>0.3972602739726027</v>
+      </c>
+      <c r="L32">
+        <v>29</v>
+      </c>
+      <c r="M32">
+        <v>29</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K33">
+        <v>0.358974358974359</v>
+      </c>
+      <c r="L33">
+        <v>28</v>
+      </c>
+      <c r="M33">
+        <v>28</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K34">
+        <v>0.009430996541967935</v>
+      </c>
+      <c r="L34">
+        <v>30</v>
+      </c>
+      <c r="M34">
+        <v>50</v>
+      </c>
+      <c r="N34">
+        <v>0.6</v>
+      </c>
+      <c r="O34">
+        <v>0.4</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>3151</v>
       </c>
     </row>
   </sheetData>
